--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adam17-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adam17-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.47808166666666</v>
+        <v>8.771609</v>
       </c>
       <c r="H2">
-        <v>100.434245</v>
+        <v>26.314827</v>
       </c>
       <c r="I2">
-        <v>0.4880542983452504</v>
+        <v>0.2200338127677125</v>
       </c>
       <c r="J2">
-        <v>0.4880542983452505</v>
+        <v>0.2200338127677125</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N2">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q2">
-        <v>3766.732525969679</v>
+        <v>535.4331034879237</v>
       </c>
       <c r="R2">
-        <v>33900.59273372711</v>
+        <v>4818.897931391314</v>
       </c>
       <c r="S2">
-        <v>0.1598530577030707</v>
+        <v>0.0449664061553634</v>
       </c>
       <c r="T2">
-        <v>0.1598530577030708</v>
+        <v>0.04496640615536341</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.47808166666666</v>
+        <v>8.771609</v>
       </c>
       <c r="H3">
-        <v>100.434245</v>
+        <v>26.314827</v>
       </c>
       <c r="I3">
-        <v>0.4880542983452504</v>
+        <v>0.2200338127677125</v>
       </c>
       <c r="J3">
-        <v>0.4880542983452505</v>
+        <v>0.2200338127677125</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q3">
-        <v>3559.204375096056</v>
+        <v>932.5489267957939</v>
       </c>
       <c r="R3">
-        <v>32032.83937586451</v>
+        <v>8392.940341162146</v>
       </c>
       <c r="S3">
-        <v>0.1510459525402021</v>
+        <v>0.07831673747641883</v>
       </c>
       <c r="T3">
-        <v>0.1510459525402021</v>
+        <v>0.07831673747641886</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.47808166666666</v>
+        <v>8.771609</v>
       </c>
       <c r="H4">
-        <v>100.434245</v>
+        <v>26.314827</v>
       </c>
       <c r="I4">
-        <v>0.4880542983452504</v>
+        <v>0.2200338127677125</v>
       </c>
       <c r="J4">
-        <v>0.4880542983452505</v>
+        <v>0.2200338127677125</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N4">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q4">
-        <v>4174.437420401186</v>
+        <v>1152.04917335395</v>
       </c>
       <c r="R4">
-        <v>37569.93678361067</v>
+        <v>10368.44256018556</v>
       </c>
       <c r="S4">
-        <v>0.1771552881019776</v>
+        <v>0.09675066913593022</v>
       </c>
       <c r="T4">
-        <v>0.1771552881019776</v>
+        <v>0.09675066913593025</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>69.74328800000001</v>
       </c>
       <c r="I5">
-        <v>0.3389134003957588</v>
+        <v>0.583164828467109</v>
       </c>
       <c r="J5">
-        <v>0.3389134003957588</v>
+        <v>0.583164828467109</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N5">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q5">
-        <v>2615.684634037632</v>
+        <v>1419.080776829431</v>
       </c>
       <c r="R5">
-        <v>23541.16170633869</v>
+        <v>12771.72699146488</v>
       </c>
       <c r="S5">
-        <v>0.1110047458520337</v>
+        <v>0.1191763493189023</v>
       </c>
       <c r="T5">
-        <v>0.1110047458520337</v>
+        <v>0.1191763493189023</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>69.74328800000001</v>
       </c>
       <c r="I6">
-        <v>0.3389134003957588</v>
+        <v>0.583164828467109</v>
       </c>
       <c r="J6">
-        <v>0.3389134003957588</v>
+        <v>0.583164828467109</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P6">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q6">
         <v>2471.573473601403</v>
@@ -818,10 +818,10 @@
         <v>22244.16126241262</v>
       </c>
       <c r="S6">
-        <v>0.1048889387205096</v>
+        <v>0.2075661290510583</v>
       </c>
       <c r="T6">
-        <v>0.1048889387205096</v>
+        <v>0.2075661290510583</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>69.74328800000001</v>
       </c>
       <c r="I7">
-        <v>0.3389134003957588</v>
+        <v>0.583164828467109</v>
       </c>
       <c r="J7">
-        <v>0.3389134003957588</v>
+        <v>0.583164828467109</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N7">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q7">
-        <v>2898.802009703135</v>
+        <v>3053.324169198851</v>
       </c>
       <c r="R7">
-        <v>26089.21808732821</v>
+        <v>27479.91752278967</v>
       </c>
       <c r="S7">
-        <v>0.1230197158232155</v>
+        <v>0.2564223500971484</v>
       </c>
       <c r="T7">
-        <v>0.1230197158232155</v>
+        <v>0.2564223500971484</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.86914966666667</v>
+        <v>7.845451333333334</v>
       </c>
       <c r="H8">
-        <v>35.607449</v>
+        <v>23.536354</v>
       </c>
       <c r="I8">
-        <v>0.1730323012589908</v>
+        <v>0.1968013587651783</v>
       </c>
       <c r="J8">
-        <v>0.1730323012589908</v>
+        <v>0.1968013587651783</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N8">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q8">
-        <v>1335.438289152336</v>
+        <v>478.8989517966585</v>
       </c>
       <c r="R8">
-        <v>12018.94460237102</v>
+        <v>4310.090566169927</v>
       </c>
       <c r="S8">
-        <v>0.05667349418175194</v>
+        <v>0.04021859058318765</v>
       </c>
       <c r="T8">
-        <v>0.05667349418175195</v>
+        <v>0.04021859058318766</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.86914966666667</v>
+        <v>7.845451333333334</v>
       </c>
       <c r="H9">
-        <v>35.607449</v>
+        <v>23.536354</v>
       </c>
       <c r="I9">
-        <v>0.1730323012589908</v>
+        <v>0.1968013587651783</v>
       </c>
       <c r="J9">
-        <v>0.1730323012589908</v>
+        <v>0.1968013587651783</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P9">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q9">
-        <v>1261.862308685745</v>
+        <v>834.0849690323214</v>
       </c>
       <c r="R9">
-        <v>11356.7607781717</v>
+        <v>7506.764721290893</v>
       </c>
       <c r="S9">
-        <v>0.05355106768345464</v>
+        <v>0.07004759930095913</v>
       </c>
       <c r="T9">
-        <v>0.05355106768345466</v>
+        <v>0.07004759930095915</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.86914966666667</v>
+        <v>7.845451333333334</v>
       </c>
       <c r="H10">
-        <v>35.607449</v>
+        <v>23.536354</v>
       </c>
       <c r="I10">
-        <v>0.1730323012589908</v>
+        <v>0.1968013587651783</v>
       </c>
       <c r="J10">
-        <v>0.1730323012589908</v>
+        <v>0.1968013587651783</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N10">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q10">
-        <v>1479.983919335748</v>
+        <v>1030.409098622079</v>
       </c>
       <c r="R10">
-        <v>13319.85527402174</v>
+        <v>9273.681887598712</v>
       </c>
       <c r="S10">
-        <v>0.06280773939378421</v>
+        <v>0.08653516888103152</v>
       </c>
       <c r="T10">
-        <v>0.06280773939378423</v>
+        <v>0.08653516888103155</v>
       </c>
     </row>
   </sheetData>
